--- a/va_facility_data_2025-02-20/Bessemer VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bessemer%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bessemer VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bessemer%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5103d30ae9a5459587ad8f1c5ee8519c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R54f05efbda4b4792bf8cd4af39ca20c2"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8b52ef0e119a4ab6b5b4ff34c4b600a6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R65ac25988bdb42ca8981b0cb9fb46ff8"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbbecb0b85d2c48afa648d9ba6bb4c5e2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb80e949f0694458e8eba89ba4727145f"/>
   </x:sheets>
 </x:workbook>
 </file>
